--- a/PREGAME/3.SEGUNDA ITERACIÓN/G3_Backlog_V02.xlsx
+++ b/PREGAME/3.SEGUNDA ITERACIÓN/G3_Backlog_V02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\15035_G3_ADSW\PREGAME\1.ELICITACIÓN\1.6 Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\15035_G3_ADSW\PREGAME\3.SEGUNDA ITERACIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77F5BA-DA3F-444A-9039-BB241233ACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F99B57-0609-4FB6-9066-9E2425107B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -329,9 +329,6 @@
     </r>
   </si>
   <si>
-    <t>SPRING 2</t>
-  </si>
-  <si>
     <t>Ingresar a ubicación en gps</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
       </rPr>
       <t>:El tiempo estimado debe ser mejor establecido ya que las tareas están tomando más tiempo de lo indicado.</t>
     </r>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
   </si>
 </sst>
 </file>
@@ -1649,8 +1649,8 @@
   </sheetPr>
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1777,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="27" t="s">
@@ -1798,7 +1798,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>30</v>
@@ -1822,10 +1822,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>89</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>90</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="28" t="s">
@@ -1837,7 +1837,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
@@ -1858,10 +1858,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="28" t="s">
@@ -1882,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="28" t="s">
@@ -1906,10 +1906,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="28" t="s">
@@ -1930,10 +1930,10 @@
         <v>17</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="28" t="s">
@@ -1954,10 +1954,10 @@
         <v>17</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="28" t="s">
@@ -3497,7 +3497,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>25</v>
@@ -3609,10 +3609,10 @@
         <v>17</v>
       </c>
       <c r="E44" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="35" t="s">
         <v>89</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>90</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
@@ -3640,10 +3640,10 @@
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
@@ -3658,10 +3658,10 @@
     </row>
     <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
@@ -3676,10 +3676,10 @@
     </row>
     <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="59"/>
       <c r="E48" s="59"/>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="60" t="s">
         <v>108</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>109</v>
       </c>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
@@ -3748,10 +3748,10 @@
         <v>17</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
@@ -3779,7 +3779,7 @@
     </row>
     <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="58" t="s">
         <v>60</v>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="58" t="s">
         <v>62</v>
@@ -3852,10 +3852,10 @@
         <v>17</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
@@ -3883,7 +3883,7 @@
     </row>
     <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C61" s="58" t="s">
         <v>64</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="58" t="s">
         <v>67</v>
@@ -3956,10 +3956,10 @@
         <v>17</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10" t="s">
@@ -3987,10 +3987,10 @@
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" s="58" t="s">
         <v>67</v>
@@ -4060,10 +4060,10 @@
         <v>17</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G73" s="10"/>
       <c r="H73" s="10" t="s">
@@ -4091,10 +4091,10 @@
     </row>
     <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C76" s="58" t="s">
         <v>67</v>
@@ -4164,10 +4164,10 @@
         <v>17</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F80" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10" t="s">
@@ -4195,10 +4195,10 @@
     </row>
     <row r="82" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C82" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="83" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83" s="58" t="s">
         <v>67</v>
@@ -5129,24 +5129,6 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
     <mergeCell ref="C83:F83"/>
     <mergeCell ref="C69:F69"/>
     <mergeCell ref="C75:F75"/>
@@ -5156,6 +5138,24 @@
     <mergeCell ref="C61:F61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5170,7 +5170,7 @@
   </sheetPr>
   <dimension ref="A1:J1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
@@ -5197,7 +5197,7 @@
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>38</v>
@@ -5602,7 +5602,7 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="42">
         <v>1</v>
@@ -5631,7 +5631,7 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="42">
         <v>2</v>
@@ -5660,7 +5660,7 @@
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="40">
         <v>2</v>
@@ -5689,7 +5689,7 @@
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="39">
         <v>2</v>
@@ -5718,7 +5718,7 @@
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="46">
         <v>1</v>
@@ -5747,7 +5747,7 @@
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="46">
         <v>2</v>
@@ -5776,7 +5776,7 @@
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="46">
         <v>1</v>
@@ -5805,7 +5805,7 @@
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="46">
         <v>1</v>
@@ -5834,7 +5834,7 @@
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="46">
         <v>1</v>
@@ -5863,7 +5863,7 @@
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="46">
         <v>1</v>
@@ -5892,7 +5892,7 @@
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="46">
         <v>1</v>
@@ -5921,7 +5921,7 @@
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" s="46">
         <v>1</v>
@@ -5950,7 +5950,7 @@
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="46">
         <v>1</v>
@@ -5979,7 +5979,7 @@
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="46">
         <v>1</v>
@@ -6100,7 +6100,7 @@
     <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" s="61"/>
       <c r="D53" s="61"/>
@@ -6134,7 +6134,7 @@
     <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" s="61"/>
       <c r="D58" s="61"/>
@@ -7134,23 +7134,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a33a5f6afe60dfd9bf25bfa493749bcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b1d19df3a708e95174e18af71c34775" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -7383,25 +7366,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3352EB-243F-434C-83F5-25E913689064}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f1f31ffb-9912-4459-99c8-b26e82094b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C936C482-D3B9-4276-A804-9892CE1C1808}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F58D60C-37DA-45DA-9246-A7B5F9DCE0BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7418,4 +7400,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C936C482-D3B9-4276-A804-9892CE1C1808}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C3352EB-243F-434C-83F5-25E913689064}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>